--- a/DMSNewVSale_2025-12-05_19-55.xlsx
+++ b/DMSNewVSale_2025-12-05_19-55.xlsx
@@ -338,13 +338,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:3</t>
+    <t>9:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>32.1600</t>
+    <t>80.1600</t>
   </si>
   <si>
     <t>DOLO-D ORAL SUSP. 115 ML</t>
@@ -2512,7 +2512,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -4959,7 +4959,7 @@
     </row>
     <row r="110" ht="25.5" customHeight="1">
       <c r="N110" s="13">
-        <v>6412.2749999999996</v>
+        <v>6460.2749999999996</v>
       </c>
       <c r="O110" s="13"/>
       <c r="P110" s="13"/>
